--- a/data/trans_orig/P32C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12486</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7091</v>
+        <v>6523</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21470</v>
+        <v>20900</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0415217488823016</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02358010891075715</v>
+        <v>0.0216915444411489</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07139631320544736</v>
+        <v>0.06949967104734425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6886</v>
+        <v>7356</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007984961869549115</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03772461221378332</v>
+        <v>0.0402958862020536</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>13944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7758</v>
+        <v>7943</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22527</v>
+        <v>22523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02885390398778396</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01605254662393847</v>
+        <v>0.01643533694265846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04661349952658438</v>
+        <v>0.04660601251610619</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>288234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279250</v>
+        <v>279820</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293629</v>
+        <v>294197</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9584782511176984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9286036867945527</v>
+        <v>0.930500328952656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9764198910892429</v>
+        <v>0.9783084555588514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -836,7 +836,7 @@
         <v>181085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>175657</v>
+        <v>175187</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>182543</v>
@@ -845,7 +845,7 @@
         <v>0.9920150381304509</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9622753877862164</v>
+        <v>0.9597041137979464</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>469319</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>460736</v>
+        <v>460740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>475505</v>
+        <v>475320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.971146096012216</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9533865004734157</v>
+        <v>0.9533939874838939</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9839474533760615</v>
+        <v>0.9835646630573417</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4347</v>
+        <v>4094</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17428</v>
+        <v>16740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0141239466480825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006871136793872423</v>
+        <v>0.006471732044266085</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02754622151604712</v>
+        <v>0.02645943982531721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>3659</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10635</v>
+        <v>10997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01477231824906576</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003965292434231424</v>
+        <v>0.004035208719173782</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04293202404181175</v>
+        <v>0.04439459312559805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>12595</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6518</v>
+        <v>6557</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22257</v>
+        <v>21920</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01430638187122141</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007403423780635431</v>
+        <v>0.007448452862911476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0252816699400668</v>
+        <v>0.02489785223945894</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>623728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>615236</v>
+        <v>615924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>628317</v>
+        <v>628570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9858760533519175</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9724537784839526</v>
+        <v>0.9735405601746828</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9931288632061275</v>
+        <v>0.9935282679557337</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>237</v>
@@ -1053,19 +1053,19 @@
         <v>244057</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>237081</v>
+        <v>236719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>246734</v>
+        <v>246716</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9852276817509342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9570679759581884</v>
+        <v>0.955605406874402</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9960347075657686</v>
+        <v>0.9959647912808262</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>855</v>
@@ -1074,19 +1074,19 @@
         <v>867785</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858123</v>
+        <v>858460</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>873862</v>
+        <v>873823</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9856936181287785</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9747183300599332</v>
+        <v>0.975102147760541</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9925965762193646</v>
+        <v>0.9925515471370885</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2656</v>
+        <v>2814</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14658</v>
+        <v>14021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01038733501346529</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004053473395017828</v>
+        <v>0.004294625171616425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02237053287723797</v>
+        <v>0.02139815560261801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7219</v>
+        <v>8201</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006456849034309807</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0227861832630486</v>
+        <v>0.02588606375394314</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1220,19 +1220,19 @@
         <v>8852</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3946</v>
+        <v>4048</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17461</v>
+        <v>17691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009106314883940328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004059281314704186</v>
+        <v>0.004164563331699699</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01796293313259014</v>
+        <v>0.01819979455593171</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>648443</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>640591</v>
+        <v>641228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>652593</v>
+        <v>652435</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9896126649865347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9776294671227649</v>
+        <v>0.9786018443973822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959465266049823</v>
+        <v>0.9957053748283836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -1270,7 +1270,7 @@
         <v>314768</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>309595</v>
+        <v>308613</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>316814</v>
@@ -1279,7 +1279,7 @@
         <v>0.9935431509656902</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9772138167369514</v>
+        <v>0.9741139362460569</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>963211</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>954602</v>
+        <v>954372</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>968117</v>
+        <v>968015</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9908936851160597</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9820370668674102</v>
+        <v>0.9818002054440681</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9959407186852958</v>
+        <v>0.9958354366683003</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3377</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9735</v>
+        <v>10389</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01221383866178221</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003167320882212172</v>
+        <v>0.003196836373608694</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03520798443877381</v>
+        <v>0.037574299967081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5120</v>
+        <v>4485</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00766152641956737</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03854424122919287</v>
+        <v>0.03376464217442537</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1437,19 +1437,19 @@
         <v>4395</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1016</v>
+        <v>991</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11649</v>
+        <v>10102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0107365898557767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002483007081690553</v>
+        <v>0.002421093965053521</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02845886763058264</v>
+        <v>0.02467874539419181</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>273119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>266761</v>
+        <v>266107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>275620</v>
+        <v>275612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9877861613382178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9647920155612256</v>
+        <v>0.9624257000329184</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9968326791177877</v>
+        <v>0.9968031636263913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1487,7 +1487,7 @@
         <v>131809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127707</v>
+        <v>128342</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>132827</v>
@@ -1496,7 +1496,7 @@
         <v>0.9923384735804326</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9614557587708071</v>
+        <v>0.9662353578255751</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>404928</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>397674</v>
+        <v>399221</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>408307</v>
+        <v>408332</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9892634101442233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9715411323694167</v>
+        <v>0.9753212546058081</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9975169929183094</v>
+        <v>0.9975789060349465</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>31605</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21603</v>
+        <v>22439</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44708</v>
+        <v>45130</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01694547680280328</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01158240414881462</v>
+        <v>0.01203089697944746</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02397072994570655</v>
+        <v>0.02419670069721582</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>8180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3505</v>
+        <v>3073</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17061</v>
+        <v>15846</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009296759941122092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003983584331803671</v>
+        <v>0.00349209490351591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0193895410311752</v>
+        <v>0.01800840784721743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1654,19 +1654,19 @@
         <v>39786</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27735</v>
+        <v>27971</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54032</v>
+        <v>56157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01449373219480569</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01010378671955598</v>
+        <v>0.01018966819461295</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01968351254062228</v>
+        <v>0.02045785282035591</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1833523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1820420</v>
+        <v>1819998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1843525</v>
+        <v>1842689</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9830545231971968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9760292700542933</v>
+        <v>0.9758032993027841</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9884175958511853</v>
+        <v>0.9879691030205525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>853</v>
@@ -1704,19 +1704,19 @@
         <v>871720</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>862839</v>
+        <v>864054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>876395</v>
+        <v>876827</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9907032400588779</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9806104589688248</v>
+        <v>0.9819915921527826</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9960164156681964</v>
+        <v>0.996507905096484</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2651</v>
@@ -1725,19 +1725,19 @@
         <v>2705243</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2690997</v>
+        <v>2688872</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2717294</v>
+        <v>2717058</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9855062678051943</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9803164874593777</v>
+        <v>0.9795421471796442</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.989896213280444</v>
+        <v>0.9898103318053871</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>20294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13052</v>
+        <v>12634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31578</v>
+        <v>29867</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03372321484727113</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02168821823777235</v>
+        <v>0.02099379929897392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05247428614966115</v>
+        <v>0.04963096615933619</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2103,19 +2103,19 @@
         <v>20294</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12990</v>
+        <v>13398</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30211</v>
+        <v>31162</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02296717014181198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01470131278496102</v>
+        <v>0.01516230174909824</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03419060036118138</v>
+        <v>0.03526673999067279</v>
       </c>
     </row>
     <row r="5">
@@ -2132,19 +2132,19 @@
         <v>581485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>570201</v>
+        <v>571912</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>588727</v>
+        <v>589145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9662767851527289</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9475257138503389</v>
+        <v>0.9503690338406637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9783117817622277</v>
+        <v>0.9790062007010261</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>257</v>
@@ -2166,19 +2166,19 @@
         <v>863312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>853395</v>
+        <v>852444</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>870616</v>
+        <v>870208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9770328298581881</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9658093996388185</v>
+        <v>0.9647332600093274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9852986872150389</v>
+        <v>0.9848376982509017</v>
       </c>
     </row>
     <row r="6">
@@ -2270,19 +2270,19 @@
         <v>9451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4591</v>
+        <v>4679</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18274</v>
+        <v>19419</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0161535250372083</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007847956521393149</v>
+        <v>0.007997322884771247</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03123463953521212</v>
+        <v>0.03319210679394872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5186</v>
+        <v>5209</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003251279578219007</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01645995838403864</v>
+        <v>0.0165322188748684</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2312,19 +2312,19 @@
         <v>10475</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5402</v>
+        <v>4918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19916</v>
+        <v>19113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01163742529105584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006001828827862699</v>
+        <v>0.005464085384917188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02212587650835647</v>
+        <v>0.02123414080456932</v>
       </c>
     </row>
     <row r="8">
@@ -2341,19 +2341,19 @@
         <v>575593</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>566770</v>
+        <v>565625</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>580453</v>
+        <v>580365</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9838464749627917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9687653604647879</v>
+        <v>0.9668078932060532</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9921520434786069</v>
+        <v>0.9920026771152292</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>290</v>
@@ -2362,7 +2362,7 @@
         <v>314033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>309871</v>
+        <v>309848</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>315057</v>
@@ -2371,7 +2371,7 @@
         <v>0.996748720421781</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9835400416159613</v>
+        <v>0.9834677811251314</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2383,19 +2383,19 @@
         <v>889626</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>880185</v>
+        <v>880988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>894699</v>
+        <v>895183</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9883625747089442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9778741234916436</v>
+        <v>0.9787658591954307</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9939981711721373</v>
+        <v>0.9945359146150828</v>
       </c>
     </row>
     <row r="9">
@@ -2487,19 +2487,19 @@
         <v>6254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2701</v>
+        <v>2243</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12846</v>
+        <v>13276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01145064816680688</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004945468080869372</v>
+        <v>0.00410697584557519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02352218803626543</v>
+        <v>0.0243092023985234</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7073</v>
+        <v>6988</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007306280730196592</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02566385100317977</v>
+        <v>0.02535672613596627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -2529,19 +2529,19 @@
         <v>8267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3286</v>
+        <v>3900</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15034</v>
+        <v>16305</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.010060709046531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003998550161033525</v>
+        <v>0.004746266833656459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0182956152966195</v>
+        <v>0.01984272877064883</v>
       </c>
     </row>
     <row r="11">
@@ -2558,19 +2558,19 @@
         <v>539887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>533295</v>
+        <v>532865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543440</v>
+        <v>543898</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9885493518331931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9764778119637345</v>
+        <v>0.9756907976014766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9950545319191306</v>
+        <v>0.9958930241544248</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>258</v>
@@ -2579,7 +2579,7 @@
         <v>273580</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>268521</v>
+        <v>268606</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>275594</v>
@@ -2588,7 +2588,7 @@
         <v>0.9926937192698034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9743361489968203</v>
+        <v>0.9746432738640338</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2600,19 +2600,19 @@
         <v>813468</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>806701</v>
+        <v>805430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>818449</v>
+        <v>817835</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.989939290953469</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9817043847033801</v>
+        <v>0.980157271229351</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9960014498389664</v>
+        <v>0.9952537331663436</v>
       </c>
     </row>
     <row r="12">
@@ -2704,19 +2704,19 @@
         <v>4922</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1299</v>
+        <v>1330</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12599</v>
+        <v>12587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01685227940140066</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004447156387662739</v>
+        <v>0.004554797320642331</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04314155382310422</v>
+        <v>0.04309849566676981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -2738,19 +2738,19 @@
         <v>4922</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1635</v>
+        <v>955</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12929</v>
+        <v>11996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0107767308354315</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003580510442140929</v>
+        <v>0.002090901396306137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02830930305107864</v>
+        <v>0.02626624073344016</v>
       </c>
     </row>
     <row r="14">
@@ -2767,19 +2767,19 @@
         <v>287126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>279449</v>
+        <v>279461</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>290749</v>
+        <v>290718</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9831477205985993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9568584461768946</v>
+        <v>0.9569015043332305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9955528436123372</v>
+        <v>0.9954452026793577</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>145</v>
@@ -2801,19 +2801,19 @@
         <v>451773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>443766</v>
+        <v>444699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>455060</v>
+        <v>455740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9892232691645685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9716906969489216</v>
+        <v>0.9737337592665598</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9964194895578591</v>
+        <v>0.9979090986036939</v>
       </c>
     </row>
     <row r="15">
@@ -2905,19 +2905,19 @@
         <v>40920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28516</v>
+        <v>29787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57308</v>
+        <v>56015</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02020718284215643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01408167089155229</v>
+        <v>0.01470957774222144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02829990318029862</v>
+        <v>0.02766141299008399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -2929,16 +2929,16 @@
         <v>998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9110</v>
+        <v>8408</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002929160693045546</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0009619886784660131</v>
+        <v>0.0009620673466711883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008783443535390123</v>
+        <v>0.008107483396411489</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -2947,19 +2947,19 @@
         <v>43958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31611</v>
+        <v>32129</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58761</v>
+        <v>58596</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01435523699212908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01032327500649421</v>
+        <v>0.01049220966669691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01918947125475205</v>
+        <v>0.01913558138434477</v>
       </c>
     </row>
     <row r="17">
@@ -2976,19 +2976,19 @@
         <v>1984092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1967704</v>
+        <v>1968997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1996496</v>
+        <v>1995225</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9797928171578436</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9717000968197014</v>
+        <v>0.9723385870099159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9859183291084476</v>
+        <v>0.9852904222577785</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>950</v>
@@ -2997,7 +2997,7 @@
         <v>1034086</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1028014</v>
+        <v>1028716</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>1036126</v>
@@ -3006,10 +3006,10 @@
         <v>0.9970708393069545</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9912165564646098</v>
+        <v>0.9918925166035907</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.999038011321534</v>
+        <v>0.9990379326533289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2815</v>
@@ -3018,19 +3018,19 @@
         <v>3018179</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3003376</v>
+        <v>3003541</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3030526</v>
+        <v>3030008</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.985644763007871</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.980810528745248</v>
+        <v>0.9808644186156552</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9896767249935058</v>
+        <v>0.9895077903333031</v>
       </c>
     </row>
     <row r="18">
@@ -3362,19 +3362,19 @@
         <v>16118</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9286</v>
+        <v>9652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26041</v>
+        <v>26267</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0277905241161872</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0160115259026874</v>
+        <v>0.01664161979552481</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04490122933037874</v>
+        <v>0.0452901249275804</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5882</v>
+        <v>6557</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003396290387420294</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01809561571638536</v>
+        <v>0.0201721250015941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -3404,19 +3404,19 @@
         <v>17222</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9865</v>
+        <v>10442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26350</v>
+        <v>28052</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01902906007703314</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01090059751914336</v>
+        <v>0.01153735018789008</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02911538110224292</v>
+        <v>0.03099576481246769</v>
       </c>
     </row>
     <row r="5">
@@ -3433,19 +3433,19 @@
         <v>563854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>553931</v>
+        <v>553705</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>570686</v>
+        <v>570320</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9722094758838128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9550987706696212</v>
+        <v>0.9547098750724196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9839884740973126</v>
+        <v>0.9833583802044752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>312</v>
@@ -3454,7 +3454,7 @@
         <v>323944</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319166</v>
+        <v>318491</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>325048</v>
@@ -3463,7 +3463,7 @@
         <v>0.9966037096125797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9819043842836148</v>
+        <v>0.9798278749984058</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3475,19 +3475,19 @@
         <v>887798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878670</v>
+        <v>876968</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>895155</v>
+        <v>894578</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9809709399229669</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.970884618897757</v>
+        <v>0.9690042351875323</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9890994024808565</v>
+        <v>0.98846264981211</v>
       </c>
     </row>
     <row r="6">
@@ -3579,19 +3579,19 @@
         <v>8337</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3928</v>
+        <v>4134</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16369</v>
+        <v>16290</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0153528422330585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007233374310726358</v>
+        <v>0.007613348271059611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03014402003560541</v>
+        <v>0.02999831203172064</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5275</v>
+        <v>5025</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00308437416166773</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01632058206166664</v>
+        <v>0.01554826161702558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -3621,19 +3621,19 @@
         <v>9334</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4167</v>
+        <v>4283</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16681</v>
+        <v>17402</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01077509799637311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004810891138535256</v>
+        <v>0.004944005662472171</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01925658645630106</v>
+        <v>0.02008931603426806</v>
       </c>
     </row>
     <row r="8">
@@ -3650,19 +3650,19 @@
         <v>534677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>526645</v>
+        <v>526724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>539086</v>
+        <v>538880</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9846471577669414</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9698559799643947</v>
+        <v>0.9700016879682795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9927666256892737</v>
+        <v>0.9923866517289404</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -3671,7 +3671,7 @@
         <v>322221</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>317943</v>
+        <v>318193</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>323218</v>
@@ -3680,7 +3680,7 @@
         <v>0.9969156258383323</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.983679417938334</v>
+        <v>0.9844517383829744</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3692,19 +3692,19 @@
         <v>856898</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>849551</v>
+        <v>848830</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>862065</v>
+        <v>861949</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9892249020036269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.980743413543699</v>
+        <v>0.9799106839657321</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9951891088614647</v>
+        <v>0.9950559943375279</v>
       </c>
     </row>
     <row r="9">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7805</v>
+        <v>9147</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004726228435502905</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01483469853326127</v>
+        <v>0.01738625583170879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6321</v>
+        <v>6423</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007176829734024803</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02175533598430716</v>
+        <v>0.02210374873907844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3838,19 +3838,19 @@
         <v>4572</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1351</v>
+        <v>1130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11200</v>
+        <v>11190</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005598118821379477</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001654697026143179</v>
+        <v>0.001383852890836975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01371412782169894</v>
+        <v>0.0137020640003743</v>
       </c>
     </row>
     <row r="11">
@@ -3867,7 +3867,7 @@
         <v>523643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>518325</v>
+        <v>516983</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>526130</v>
@@ -3876,7 +3876,7 @@
         <v>0.9952737715644971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9851653014667386</v>
+        <v>0.9826137441682912</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3888,7 +3888,7 @@
         <v>288486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>284250</v>
+        <v>284148</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>290571</v>
@@ -3897,7 +3897,7 @@
         <v>0.9928231702659752</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.978244664015693</v>
+        <v>0.9778962512609215</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3909,19 +3909,19 @@
         <v>812129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>805501</v>
+        <v>805511</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>815350</v>
+        <v>815571</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9944018811786205</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9862858721783013</v>
+        <v>0.9862979359996258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9983453029738568</v>
+        <v>0.998616147109163</v>
       </c>
     </row>
     <row r="12">
@@ -4013,19 +4013,19 @@
         <v>5022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1963</v>
+        <v>1882</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12512</v>
+        <v>11347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0158431690262363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006191414479848274</v>
+        <v>0.005938056061533976</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0394716343713894</v>
+        <v>0.03579426345443427</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6743</v>
+        <v>7278</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01102562540987702</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03673755946053815</v>
+        <v>0.03965278957927329</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -4055,19 +4055,19 @@
         <v>7046</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2999</v>
+        <v>3047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14689</v>
+        <v>13708</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01407668478034809</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005991509815080372</v>
+        <v>0.006087775308868077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02934612515209609</v>
+        <v>0.02738683101718548</v>
       </c>
     </row>
     <row r="14">
@@ -4084,19 +4084,19 @@
         <v>311975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>304485</v>
+        <v>305650</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>315034</v>
+        <v>315115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9841568309737637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9605283656286113</v>
+        <v>0.9642057365455657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9938085855201517</v>
+        <v>0.9940619439384659</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>169</v>
@@ -4105,7 +4105,7 @@
         <v>181509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>176790</v>
+        <v>176255</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>183533</v>
@@ -4114,7 +4114,7 @@
         <v>0.9889743745901229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9632624405394614</v>
+        <v>0.960347210420726</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4126,19 +4126,19 @@
         <v>493484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>485841</v>
+        <v>486822</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>497531</v>
+        <v>497483</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9859233152196519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9706538748479039</v>
+        <v>0.9726131689828145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9940084901849197</v>
+        <v>0.9939122246911318</v>
       </c>
     </row>
     <row r="15">
@@ -4230,19 +4230,19 @@
         <v>31963</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22037</v>
+        <v>21195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45685</v>
+        <v>45245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01625714051558842</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01120862156527512</v>
+        <v>0.01078015645884414</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02323607027329182</v>
+        <v>0.02301248102289438</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4251,19 +4251,19 @@
         <v>6210</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2106</v>
+        <v>2165</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13285</v>
+        <v>13067</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005532781569330028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001876135693561073</v>
+        <v>0.001929245651457603</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01183671093668516</v>
+        <v>0.0116423518154472</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -4272,19 +4272,19 @@
         <v>38173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27175</v>
+        <v>27556</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52109</v>
+        <v>54328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01235985510509047</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008798962351843182</v>
+        <v>0.00892232152352585</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01687202092452041</v>
+        <v>0.01759054501596296</v>
       </c>
     </row>
     <row r="17">
@@ -4301,19 +4301,19 @@
         <v>1934150</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1920428</v>
+        <v>1920868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1944076</v>
+        <v>1944918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9837428594844115</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9767639297267081</v>
+        <v>0.9769875189771057</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9887913784347248</v>
+        <v>0.9892198435411559</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1068</v>
@@ -4322,19 +4322,19 @@
         <v>1116160</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1109085</v>
+        <v>1109303</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1120264</v>
+        <v>1120205</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.99446721843067</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9881632890633155</v>
+        <v>0.9883576481845534</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.998123864306439</v>
+        <v>0.9980707543485424</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2897</v>
@@ -4343,19 +4343,19 @@
         <v>3050310</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3036374</v>
+        <v>3034155</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3061308</v>
+        <v>3060927</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9876401448949095</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9831279790754793</v>
+        <v>0.9824094549840368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9912010376481567</v>
+        <v>0.9910776784764742</v>
       </c>
     </row>
     <row r="18">
@@ -4687,19 +4687,19 @@
         <v>8053</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4214</v>
+        <v>3994</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14544</v>
+        <v>15175</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03749907935860058</v>
+        <v>0.03749907935860057</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01962032567331952</v>
+        <v>0.01859604993799711</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06772621447250066</v>
+        <v>0.07066172619667728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4708,19 +4708,19 @@
         <v>1579</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4541</v>
+        <v>4606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01349269051254538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003694027806857478</v>
+        <v>0.003670792133733259</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03881207214679244</v>
+        <v>0.03936773264395717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4729,19 +4729,19 @@
         <v>9632</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4979</v>
+        <v>4890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15945</v>
+        <v>16238</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02903261999888279</v>
+        <v>0.02903261999888278</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01500759230476849</v>
+        <v>0.01474053424757811</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04806244222950259</v>
+        <v>0.04894637039301732</v>
       </c>
     </row>
     <row r="5">
@@ -4758,19 +4758,19 @@
         <v>206701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200210</v>
+        <v>199579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>210540</v>
+        <v>210760</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9625009206413996</v>
+        <v>0.9625009206413995</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9322737855274993</v>
+        <v>0.9293382738033226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803796743266805</v>
+        <v>0.9814039500620028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -4779,19 +4779,19 @@
         <v>115423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112461</v>
+        <v>112396</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>116570</v>
+        <v>116573</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9865073094874547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9611879278532077</v>
+        <v>0.960632267356044</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9963059721931427</v>
+        <v>0.9963292078662668</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>340</v>
@@ -4800,19 +4800,19 @@
         <v>322123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>315810</v>
+        <v>315517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>326776</v>
+        <v>326865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9709673800011172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9519375577704975</v>
+        <v>0.9510536296069825</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9849924076952316</v>
+        <v>0.9852594657524218</v>
       </c>
     </row>
     <row r="6">
@@ -4904,19 +4904,19 @@
         <v>4796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1644</v>
+        <v>1812</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11057</v>
+        <v>11337</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01046962052273957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003589923255257136</v>
+        <v>0.003956321823969478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02413782720607845</v>
+        <v>0.02474996676972065</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3632</v>
+        <v>3150</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004199726266322239</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01486326046065161</v>
+        <v>0.01289340943993399</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -4946,19 +4946,19 @@
         <v>5822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2114</v>
+        <v>2559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12577</v>
+        <v>12143</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.008288557074096356</v>
+        <v>0.008288557074096358</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003009477924734626</v>
+        <v>0.003642998139345711</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01790548328438037</v>
+        <v>0.01728805592403795</v>
       </c>
     </row>
     <row r="8">
@@ -4975,19 +4975,19 @@
         <v>453268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>447007</v>
+        <v>446727</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>456420</v>
+        <v>456252</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9895303794772604</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9758621727939216</v>
+        <v>0.9752500332302784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9964100767447428</v>
+        <v>0.9960436781760305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>313</v>
@@ -4996,7 +4996,7 @@
         <v>243315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>240709</v>
+        <v>241191</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>244341</v>
@@ -5005,7 +5005,7 @@
         <v>0.9958002737336777</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9851367395393483</v>
+        <v>0.9871065905600657</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5017,19 +5017,19 @@
         <v>696583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>689828</v>
+        <v>690262</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>700291</v>
+        <v>699846</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9917114429259037</v>
+        <v>0.9917114429259036</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9820945167156194</v>
+        <v>0.9827119440759626</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969905220752654</v>
+        <v>0.9963570018606542</v>
       </c>
     </row>
     <row r="9">
@@ -5121,19 +5121,19 @@
         <v>4504</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1907</v>
+        <v>1595</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10102</v>
+        <v>10048</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008904519674885682</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003771023241011095</v>
+        <v>0.003154132461846659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01997360536391992</v>
+        <v>0.01986615761528305</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -5142,19 +5142,19 @@
         <v>4511</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1387</v>
+        <v>850</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15301</v>
+        <v>12198</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01688712484590313</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005191593282266825</v>
+        <v>0.003181989602175076</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05727721906359825</v>
+        <v>0.0456617323623058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5163,19 +5163,19 @@
         <v>9015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4512</v>
+        <v>4574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17458</v>
+        <v>20392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01166351428962966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005837467854298773</v>
+        <v>0.005918406221289746</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0225867872952342</v>
+        <v>0.02638339506241788</v>
       </c>
     </row>
     <row r="11">
@@ -5192,19 +5192,19 @@
         <v>501274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>495676</v>
+        <v>495730</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>503871</v>
+        <v>504183</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9910954803251143</v>
+        <v>0.9910954803251142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9800263946360801</v>
+        <v>0.9801338423847168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9962289767589888</v>
+        <v>0.9968458675381534</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>365</v>
@@ -5213,19 +5213,19 @@
         <v>262630</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251840</v>
+        <v>254943</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>265754</v>
+        <v>266291</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.983112875154097</v>
+        <v>0.9831128751540967</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9427227809364022</v>
+        <v>0.9543382676376941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9948084067177333</v>
+        <v>0.996818010397825</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>856</v>
@@ -5234,19 +5234,19 @@
         <v>763903</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>755460</v>
+        <v>752526</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>768406</v>
+        <v>768344</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9883364857103702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9774132127047656</v>
+        <v>0.9736166049375823</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9941625321457012</v>
+        <v>0.9940815937787103</v>
       </c>
     </row>
     <row r="12">
@@ -5338,19 +5338,19 @@
         <v>2531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7977</v>
+        <v>8665</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005225322527757371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001160969746487245</v>
+        <v>0.00115006738954545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01646506458035882</v>
+        <v>0.01788699784585538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5359,19 +5359,19 @@
         <v>4502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14702</v>
+        <v>13739</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01665261488473425</v>
+        <v>0.01665261488473426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002047558641641889</v>
+        <v>0.002045012282609331</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0543830502180656</v>
+        <v>0.05082196582991577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -5380,19 +5380,19 @@
         <v>7033</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2549</v>
+        <v>2721</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16389</v>
+        <v>16444</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.009318111912045514</v>
+        <v>0.009318111912045512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003376791520029677</v>
+        <v>0.003604781898065103</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0217128045762249</v>
+        <v>0.02178567882351166</v>
       </c>
     </row>
     <row r="14">
@@ -5409,19 +5409,19 @@
         <v>481924</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>476478</v>
+        <v>475790</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483893</v>
+        <v>483898</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9947746774722426</v>
+        <v>0.9947746774722428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9835349354196419</v>
+        <v>0.9821130021541441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9988390302535128</v>
+        <v>0.9988499326104545</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>358</v>
@@ -5430,19 +5430,19 @@
         <v>265833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>255633</v>
+        <v>256596</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269781</v>
+        <v>269782</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9833473851152659</v>
+        <v>0.9833473851152661</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9456169497819344</v>
+        <v>0.9491780341700847</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.997952441358358</v>
+        <v>0.9979549877173908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>805</v>
@@ -5451,19 +5451,19 @@
         <v>747757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738401</v>
+        <v>738346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752241</v>
+        <v>752069</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9906818880879544</v>
+        <v>0.9906818880879548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9782871954237751</v>
+        <v>0.9782143211764883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9966232084799703</v>
+        <v>0.9963952181019349</v>
       </c>
     </row>
     <row r="15">
@@ -5555,19 +5555,19 @@
         <v>19884</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12746</v>
+        <v>12614</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28580</v>
+        <v>29170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01195631752703298</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00766426330444181</v>
+        <v>0.007584594994078777</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01718525131005596</v>
+        <v>0.01754026297804662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -5576,19 +5576,19 @@
         <v>11618</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5465</v>
+        <v>5778</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22463</v>
+        <v>24606</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01292570210266656</v>
+        <v>0.01292570210266655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006080134797421802</v>
+        <v>0.006428207030403628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02499133389230403</v>
+        <v>0.02737560849107872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -5597,19 +5597,19 @@
         <v>31502</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21347</v>
+        <v>22589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44337</v>
+        <v>45351</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01229642095736734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008332594589883006</v>
+        <v>0.008817465338251179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01730641731714679</v>
+        <v>0.01770214591431696</v>
       </c>
     </row>
     <row r="17">
@@ -5626,19 +5626,19 @@
         <v>1643166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1634470</v>
+        <v>1633880</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1650304</v>
+        <v>1650436</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9880436824729669</v>
+        <v>0.9880436824729671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9828147486899441</v>
+        <v>0.982459737021953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9923357366955581</v>
+        <v>0.9924154050059211</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1185</v>
@@ -5647,19 +5647,19 @@
         <v>887200</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>876355</v>
+        <v>874212</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>893353</v>
+        <v>893040</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9870742978973335</v>
+        <v>0.9870742978973334</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.975008666107696</v>
+        <v>0.9726243915089223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9939198652025782</v>
+        <v>0.9935717929695964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2738</v>
@@ -5668,19 +5668,19 @@
         <v>2530366</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2517531</v>
+        <v>2516517</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2540521</v>
+        <v>2539279</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9877035790426328</v>
+        <v>0.9877035790426327</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9826935826828531</v>
+        <v>0.9822978540856833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9916674054101168</v>
+        <v>0.9911825346617491</v>
       </c>
     </row>
     <row r="18">
